--- a/Code/Results/Cases/Case_0_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_193/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05889322004030362</v>
+        <v>0.01867454579619476</v>
       </c>
       <c r="D2">
-        <v>0.04826956464915355</v>
+        <v>0.01614318093050571</v>
       </c>
       <c r="E2">
-        <v>1.434395088813943</v>
+        <v>0.4248923627222041</v>
       </c>
       <c r="F2">
-        <v>0.393709675232067</v>
+        <v>0.4087128934447577</v>
       </c>
       <c r="G2">
-        <v>0.2915325148622543</v>
+        <v>0.2599563856376221</v>
       </c>
       <c r="H2">
-        <v>0.203710263214731</v>
+        <v>0.4151933184147083</v>
       </c>
       <c r="I2">
-        <v>0.2762650813745609</v>
+        <v>0.2983423642013037</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.257761213193987</v>
+        <v>1.02386214922933</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8582114076139931</v>
+        <v>0.8913632644226368</v>
       </c>
       <c r="O2">
-        <v>0.9964220198688452</v>
+        <v>1.269569322857564</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05124536596377993</v>
+        <v>0.01628825686935187</v>
       </c>
       <c r="D3">
-        <v>0.04234926182968479</v>
+        <v>0.01419227114529775</v>
       </c>
       <c r="E3">
-        <v>1.232547476480761</v>
+        <v>0.3706619140378393</v>
       </c>
       <c r="F3">
-        <v>0.354488492994868</v>
+        <v>0.4031517034930729</v>
       </c>
       <c r="G3">
-        <v>0.2603476635807453</v>
+        <v>0.2555352550209236</v>
       </c>
       <c r="H3">
-        <v>0.1950724596083049</v>
+        <v>0.4170207067384695</v>
       </c>
       <c r="I3">
-        <v>0.2494656192629208</v>
+        <v>0.2948900495461544</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.845055153711797</v>
+        <v>0.8933833986952209</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.829607396864489</v>
+        <v>0.883633951762377</v>
       </c>
       <c r="O3">
-        <v>0.9118470434751629</v>
+        <v>1.263743596995951</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04655214495829085</v>
+        <v>0.01481989529445116</v>
       </c>
       <c r="D4">
-        <v>0.0387041080113093</v>
+        <v>0.01298827817062431</v>
       </c>
       <c r="E4">
-        <v>1.110758813421242</v>
+        <v>0.3374475790228502</v>
       </c>
       <c r="F4">
-        <v>0.331308402825826</v>
+        <v>0.4000820561260952</v>
       </c>
       <c r="G4">
-        <v>0.2420354151508661</v>
+        <v>0.2530913040299154</v>
       </c>
       <c r="H4">
-        <v>0.1902839446182369</v>
+        <v>0.418397931638367</v>
       </c>
       <c r="I4">
-        <v>0.2336808703165829</v>
+        <v>0.2930257512682708</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.591547034680246</v>
+        <v>0.8129774182268363</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8127874647950648</v>
+        <v>0.879216026500103</v>
       </c>
       <c r="O4">
-        <v>0.862757596039188</v>
+        <v>1.261264851146535</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0446397429826888</v>
+        <v>0.01422076225017577</v>
       </c>
       <c r="D5">
-        <v>0.0372159763020079</v>
+        <v>0.01249613865913091</v>
       </c>
       <c r="E5">
-        <v>1.061587532460933</v>
+        <v>0.3239318125341839</v>
       </c>
       <c r="F5">
-        <v>0.3220714498955459</v>
+        <v>0.3989176585241054</v>
       </c>
       <c r="G5">
-        <v>0.2347655184170989</v>
+        <v>0.2521630911586499</v>
       </c>
       <c r="H5">
-        <v>0.1884543351937893</v>
+        <v>0.4190232619484391</v>
       </c>
       <c r="I5">
-        <v>0.2274039362888516</v>
+        <v>0.2923300822973651</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.488185989302139</v>
+        <v>0.7801401465794697</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8061123407174478</v>
+        <v>0.8774985576277317</v>
       </c>
       <c r="O5">
-        <v>0.8434138029239904</v>
+        <v>1.260530037131318</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04432218269768384</v>
+        <v>0.01412123152073264</v>
       </c>
       <c r="D6">
-        <v>0.03696870526293594</v>
+        <v>0.01241432963453093</v>
       </c>
       <c r="E6">
-        <v>1.053448124219628</v>
+        <v>0.3216886509361387</v>
       </c>
       <c r="F6">
-        <v>0.320549793767988</v>
+        <v>0.3987295293492394</v>
       </c>
       <c r="G6">
-        <v>0.2335694892078664</v>
+        <v>0.2520130421681941</v>
       </c>
       <c r="H6">
-        <v>0.1881576641449243</v>
+        <v>0.4191309669431647</v>
       </c>
       <c r="I6">
-        <v>0.2263706790346696</v>
+        <v>0.2922184299393855</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.471018901743946</v>
+        <v>0.7746833059486846</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.805014544832872</v>
+        <v>0.8772183908853037</v>
       </c>
       <c r="O6">
-        <v>0.8402401688639856</v>
+        <v>1.260424623385106</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0465263538123466</v>
+        <v>0.01481181822566668</v>
       </c>
       <c r="D7">
-        <v>0.03868404970217654</v>
+        <v>0.01298164703935356</v>
       </c>
       <c r="E7">
-        <v>1.110093918166683</v>
+        <v>0.33726522447202</v>
       </c>
       <c r="F7">
-        <v>0.3311830059416465</v>
+        <v>0.4000660026899823</v>
       </c>
       <c r="G7">
-        <v>0.2419366138673666</v>
+        <v>0.2530785120921379</v>
       </c>
       <c r="H7">
-        <v>0.1902587868700039</v>
+        <v>0.4184061056211519</v>
       </c>
       <c r="I7">
-        <v>0.2335956045760206</v>
+        <v>0.293016110151413</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.59015332732244</v>
+        <v>0.8125348486962309</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8126967262520708</v>
+        <v>0.879192528013661</v>
       </c>
       <c r="O7">
-        <v>0.862494112871417</v>
+        <v>1.261253827693778</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0562553725231254</v>
+        <v>0.01785243077317489</v>
       </c>
       <c r="D8">
-        <v>0.04623022351786688</v>
+        <v>0.01547180094174649</v>
       </c>
       <c r="E8">
-        <v>1.364301521078602</v>
+        <v>0.4061754055134656</v>
       </c>
       <c r="F8">
-        <v>0.3799880723648883</v>
+        <v>0.4067236598048964</v>
       </c>
       <c r="G8">
-        <v>0.2805956920564228</v>
+        <v>0.2583756028297159</v>
       </c>
       <c r="H8">
-        <v>0.2006202032795983</v>
+        <v>0.4157703905665073</v>
       </c>
       <c r="I8">
-        <v>0.2668774216245566</v>
+        <v>0.2970988774757757</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.115464243785823</v>
+        <v>0.9789348063767136</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8481897191536945</v>
+        <v>0.8886303847752259</v>
       </c>
       <c r="O8">
-        <v>0.9666378981745538</v>
+        <v>1.267332133498826</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07538074742569734</v>
+        <v>0.02378871772459945</v>
       </c>
       <c r="D9">
-        <v>0.06095760592052812</v>
+        <v>0.02030493194715177</v>
       </c>
       <c r="E9">
-        <v>1.88388183987631</v>
+        <v>0.5420490652899019</v>
       </c>
       <c r="F9">
-        <v>0.4837043547511186</v>
+        <v>0.4225280545349648</v>
       </c>
       <c r="G9">
-        <v>0.363884202262696</v>
+        <v>0.2709267809955804</v>
       </c>
       <c r="H9">
-        <v>0.2254023460343859</v>
+        <v>0.4126303027463791</v>
       </c>
       <c r="I9">
-        <v>0.3380920941981245</v>
+        <v>0.3071411571075018</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.146198187719961</v>
+        <v>1.302854067094017</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9240647359140723</v>
+        <v>0.9097234941101817</v>
       </c>
       <c r="O9">
-        <v>1.1959873510352</v>
+        <v>1.288008208905325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08950079290276847</v>
+        <v>0.02813286610366106</v>
       </c>
       <c r="D10">
-        <v>0.07174977284970652</v>
+        <v>0.02382371202507017</v>
       </c>
       <c r="E10">
-        <v>2.284769432497029</v>
+        <v>0.6424461764504201</v>
       </c>
       <c r="F10">
-        <v>0.5660684615601426</v>
+        <v>0.4358334763099379</v>
       </c>
       <c r="G10">
-        <v>0.430911827529755</v>
+        <v>0.2814908754358925</v>
       </c>
       <c r="H10">
-        <v>0.2468950871860613</v>
+        <v>0.4115654997890061</v>
       </c>
       <c r="I10">
-        <v>0.3949874925946162</v>
+        <v>0.3157744682862074</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.906106076276785</v>
+        <v>1.539298622625722</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9842051852165952</v>
+        <v>0.9267779612803935</v>
       </c>
       <c r="O10">
-        <v>1.383696198640081</v>
+        <v>1.308599588287166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0959488989497288</v>
+        <v>0.03010516242193262</v>
       </c>
       <c r="D11">
-        <v>0.07665705085709362</v>
+        <v>0.02541720200218123</v>
       </c>
       <c r="E11">
-        <v>2.47291518917487</v>
+        <v>0.688269653457624</v>
       </c>
       <c r="F11">
-        <v>0.6051878055727542</v>
+        <v>0.4422583125526955</v>
       </c>
       <c r="G11">
-        <v>0.4629830304579343</v>
+        <v>0.2865935063286713</v>
       </c>
       <c r="H11">
-        <v>0.2575236017919025</v>
+        <v>0.4113520737260643</v>
       </c>
       <c r="I11">
-        <v>0.4220943835585018</v>
+        <v>0.3199776526202669</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.252945437612198</v>
+        <v>1.646513399764501</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.012657181339009</v>
+        <v>0.9348709719671717</v>
       </c>
       <c r="O11">
-        <v>1.474208862930197</v>
+        <v>1.319153535902927</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09839503375239644</v>
+        <v>0.03085143343459151</v>
       </c>
       <c r="D12">
-        <v>0.07851531957869184</v>
+        <v>0.02601954281016106</v>
       </c>
       <c r="E12">
-        <v>2.54514637007108</v>
+        <v>0.7056456657216046</v>
       </c>
       <c r="F12">
-        <v>0.6202671814277352</v>
+        <v>0.4447450282200123</v>
       </c>
       <c r="G12">
-        <v>0.4753833227134834</v>
+        <v>0.2885688342057193</v>
       </c>
       <c r="H12">
-        <v>0.2616833820869573</v>
+        <v>0.4113103122304977</v>
       </c>
       <c r="I12">
-        <v>0.4325562596379484</v>
+        <v>0.3216091793221096</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.384501642323016</v>
+        <v>1.687061401549784</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.023600909629081</v>
+        <v>0.9379833884116096</v>
       </c>
       <c r="O12">
-        <v>1.509307325764837</v>
+        <v>1.323321736266479</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09786800669115792</v>
+        <v>0.03069073766286579</v>
       </c>
       <c r="D13">
-        <v>0.0781151036434764</v>
+        <v>0.02588986659105075</v>
       </c>
       <c r="E13">
-        <v>2.529543656746725</v>
+        <v>0.7019023504318227</v>
       </c>
       <c r="F13">
-        <v>0.6170072726727369</v>
+        <v>0.4442070739960968</v>
       </c>
       <c r="G13">
-        <v>0.4727008481882535</v>
+        <v>0.2881414904914692</v>
       </c>
       <c r="H13">
-        <v>0.2607812826715445</v>
+        <v>0.4113175676704373</v>
       </c>
       <c r="I13">
-        <v>0.4302939881425374</v>
+        <v>0.3212560242668872</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.356158217361099</v>
+        <v>1.678331008840701</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.021236234002515</v>
+        <v>0.9373109553000205</v>
       </c>
       <c r="O13">
-        <v>1.501710163400958</v>
+        <v>1.322416389887223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0961500513734137</v>
+        <v>0.03016657071927398</v>
       </c>
       <c r="D14">
-        <v>0.07680993017052629</v>
+        <v>0.02546677880750536</v>
       </c>
       <c r="E14">
-        <v>2.478837013815806</v>
+        <v>0.6896987042562586</v>
       </c>
       <c r="F14">
-        <v>0.6064228984674997</v>
+        <v>0.4424618170515799</v>
       </c>
       <c r="G14">
-        <v>0.4639979147231941</v>
+        <v>0.2867551524007581</v>
       </c>
       <c r="H14">
-        <v>0.2578630478821964</v>
+        <v>0.4113478546506997</v>
       </c>
       <c r="I14">
-        <v>0.4229510117902322</v>
+        <v>0.3201110790333246</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.263764019101757</v>
+        <v>1.64985036166604</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.01355405608362</v>
+        <v>0.9351260771394152</v>
       </c>
       <c r="O14">
-        <v>1.477079410297875</v>
+        <v>1.3194930104994</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09509834912570625</v>
+        <v>0.02984542477278751</v>
       </c>
       <c r="D15">
-        <v>0.07601048155154189</v>
+        <v>0.02520748355932767</v>
       </c>
       <c r="E15">
-        <v>2.447910819482033</v>
+        <v>0.6822267515494218</v>
       </c>
       <c r="F15">
-        <v>0.5999751508111757</v>
+        <v>0.441399806801364</v>
       </c>
       <c r="G15">
-        <v>0.4587012946020508</v>
+        <v>0.2859116004987783</v>
       </c>
       <c r="H15">
-        <v>0.2560935173696066</v>
+        <v>0.4113714956712045</v>
       </c>
       <c r="I15">
-        <v>0.4184795468925486</v>
+        <v>0.3194149656254126</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.207199560104698</v>
+        <v>1.632398315196212</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.008870965128907</v>
+        <v>0.9337939859087783</v>
       </c>
       <c r="O15">
-        <v>1.462102284291092</v>
+        <v>1.317724739289673</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08907996120774442</v>
+        <v>0.0280038906861364</v>
       </c>
       <c r="D16">
-        <v>0.07142905243451736</v>
+        <v>0.02371942490525214</v>
       </c>
       <c r="E16">
-        <v>2.272602645132025</v>
+        <v>0.6394547190730577</v>
       </c>
       <c r="F16">
-        <v>0.5635475108934003</v>
+        <v>0.4354211084283861</v>
       </c>
       <c r="G16">
-        <v>0.42885006371543</v>
+        <v>0.2811634138078887</v>
       </c>
       <c r="H16">
-        <v>0.2462186690322028</v>
+        <v>0.4115849081546941</v>
       </c>
       <c r="I16">
-        <v>0.393242389851352</v>
+        <v>0.3155053486337565</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.883466656280575</v>
+        <v>1.532284745637014</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.982368819077692</v>
+        <v>0.9262557691776436</v>
       </c>
       <c r="O16">
-        <v>1.377891295919</v>
+        <v>1.307933829179717</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08539478939559331</v>
+        <v>0.02687314939397822</v>
       </c>
       <c r="D17">
-        <v>0.06861814970987723</v>
+        <v>0.02280467054220026</v>
       </c>
       <c r="E17">
-        <v>2.166640338416329</v>
+        <v>0.613255718895374</v>
       </c>
       <c r="F17">
-        <v>0.5416426483489474</v>
+        <v>0.4318488660811823</v>
       </c>
       <c r="G17">
-        <v>0.4109614000959425</v>
+        <v>0.2783268785977953</v>
       </c>
       <c r="H17">
-        <v>0.2403874155290566</v>
+        <v>0.4117852960428507</v>
       </c>
       <c r="I17">
-        <v>0.3780882627386859</v>
+        <v>0.3131777227167092</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.685196232300427</v>
+        <v>1.470778307306318</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9663992042249419</v>
+        <v>0.9217168057991501</v>
       </c>
       <c r="O17">
-        <v>1.327601891101892</v>
+        <v>1.30223209849575</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08327746106874656</v>
+        <v>0.02622241405424575</v>
       </c>
       <c r="D18">
-        <v>0.06700117275573803</v>
+        <v>0.02227785081413458</v>
       </c>
       <c r="E18">
-        <v>2.106227424474369</v>
+        <v>0.5982009791838294</v>
       </c>
       <c r="F18">
-        <v>0.529197166307128</v>
+        <v>0.4298292183375523</v>
       </c>
       <c r="G18">
-        <v>0.4008191842674762</v>
+        <v>0.2767233089191876</v>
       </c>
       <c r="H18">
-        <v>0.2371127506327895</v>
+        <v>0.4119260520110828</v>
       </c>
       <c r="I18">
-        <v>0.3694859430365725</v>
+        <v>0.3118648856791921</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.571261616562253</v>
+        <v>1.435369090553309</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9573160670959737</v>
+        <v>0.9191376539012737</v>
       </c>
       <c r="O18">
-        <v>1.299153327536573</v>
+        <v>1.299064264528681</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08256093890996397</v>
+        <v>0.0260020250583608</v>
       </c>
       <c r="D19">
-        <v>0.06645364577767054</v>
+        <v>0.0220993636432425</v>
       </c>
       <c r="E19">
-        <v>2.085859965846353</v>
+        <v>0.5931060942490234</v>
       </c>
       <c r="F19">
-        <v>0.525008902923787</v>
+        <v>0.4291514057396242</v>
       </c>
       <c r="G19">
-        <v>0.3974096048352038</v>
+        <v>0.2761851536228903</v>
       </c>
       <c r="H19">
-        <v>0.2360172634941904</v>
+        <v>0.4119780860159636</v>
       </c>
       <c r="I19">
-        <v>0.3665923052240956</v>
+        <v>0.3114248326057805</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.532701964048897</v>
+        <v>1.423374653709118</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9542578606075409</v>
+        <v>0.9182698261406728</v>
       </c>
       <c r="O19">
-        <v>1.289600471554422</v>
+        <v>1.298010836488828</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08578684007775905</v>
+        <v>0.02699355655758495</v>
       </c>
       <c r="D20">
-        <v>0.06891739582233924</v>
+        <v>0.02290211809141596</v>
       </c>
       <c r="E20">
-        <v>2.177863910427789</v>
+        <v>0.616043161580393</v>
       </c>
       <c r="F20">
-        <v>0.5439583630286364</v>
+        <v>0.432225511944452</v>
       </c>
       <c r="G20">
-        <v>0.4128502806566701</v>
+        <v>0.2786259392582195</v>
       </c>
       <c r="H20">
-        <v>0.2409998658614256</v>
+        <v>0.4117613247583165</v>
       </c>
       <c r="I20">
-        <v>0.3796895079326958</v>
+        <v>0.3134228150627152</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.706291216460386</v>
+        <v>1.477329136389301</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9680885375466488</v>
+        <v>0.9221967247386544</v>
       </c>
       <c r="O20">
-        <v>1.332905358222831</v>
+        <v>1.302827494887993</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0966545309725575</v>
+        <v>0.03032054769494152</v>
       </c>
       <c r="D21">
-        <v>0.07719328906099321</v>
+        <v>0.02559107956121665</v>
       </c>
       <c r="E21">
-        <v>2.493702746758728</v>
+        <v>0.6932825549099988</v>
       </c>
       <c r="F21">
-        <v>0.6095243362227052</v>
+        <v>0.4429729799809792</v>
       </c>
       <c r="G21">
-        <v>0.4665470001227732</v>
+        <v>0.28716118159997</v>
       </c>
       <c r="H21">
-        <v>0.2587164346441995</v>
+        <v>0.411337897840454</v>
       </c>
       <c r="I21">
-        <v>0.4251022967596612</v>
+        <v>0.3204462934508356</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.290896158121654</v>
+        <v>1.65821724508595</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.015805793002258</v>
+        <v>0.9357665353852269</v>
       </c>
       <c r="O21">
-        <v>1.484290986057005</v>
+        <v>1.320347011516958</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1037831263549265</v>
+        <v>0.03249144460961872</v>
       </c>
       <c r="D22">
-        <v>0.08260215722079067</v>
+        <v>0.02734216167407055</v>
       </c>
       <c r="E22">
-        <v>2.705945744477106</v>
+        <v>0.7439016723500202</v>
       </c>
       <c r="F22">
-        <v>0.6539393525857093</v>
+        <v>0.4503106012597442</v>
       </c>
       <c r="G22">
-        <v>0.5031460229425022</v>
+        <v>0.2929906849181236</v>
       </c>
       <c r="H22">
-        <v>0.2710887624334219</v>
+        <v>0.411288870027775</v>
       </c>
       <c r="I22">
-        <v>0.4559420681057063</v>
+        <v>0.3252690424205724</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.674253440940788</v>
+        <v>1.77613446857805</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.047986602373911</v>
+        <v>0.9449134534473842</v>
       </c>
       <c r="O22">
-        <v>1.588075078133244</v>
+        <v>1.332797990394198</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09997580552924035</v>
+        <v>0.03133312710532721</v>
       </c>
       <c r="D23">
-        <v>0.07971522893420513</v>
+        <v>0.02640816701085669</v>
       </c>
       <c r="E23">
-        <v>2.592078843335585</v>
+        <v>0.7168720222468039</v>
       </c>
       <c r="F23">
-        <v>0.6300811199263023</v>
+        <v>0.4463656017903617</v>
       </c>
       <c r="G23">
-        <v>0.4834646253504502</v>
+        <v>0.2898562602169932</v>
       </c>
       <c r="H23">
-        <v>0.2644083509592008</v>
+        <v>0.411294170501165</v>
       </c>
       <c r="I23">
-        <v>0.4393687449139776</v>
+        <v>0.3226737089515979</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.469513057290385</v>
+        <v>1.713228362169446</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.030715755817823</v>
+        <v>0.9400062342076438</v>
       </c>
       <c r="O23">
-        <v>1.532209506222728</v>
+        <v>1.326060754868479</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08560958989424705</v>
+        <v>0.02693912252409802</v>
       </c>
       <c r="D24">
-        <v>0.06878210964065801</v>
+        <v>0.02285806490255027</v>
       </c>
       <c r="E24">
-        <v>2.172788168069999</v>
+        <v>0.6147829358119452</v>
       </c>
       <c r="F24">
-        <v>0.5429109698035077</v>
+        <v>0.4320551242044175</v>
       </c>
       <c r="G24">
-        <v>0.4119958769030916</v>
+        <v>0.278490649258174</v>
       </c>
       <c r="H24">
-        <v>0.2407227356713406</v>
+        <v>0.4117720825920514</v>
       </c>
       <c r="I24">
-        <v>0.378965243947178</v>
+        <v>0.3133119298757805</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.696754010578843</v>
+        <v>1.474367656982395</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9673244855991356</v>
+        <v>0.9219796587882314</v>
       </c>
       <c r="O24">
-        <v>1.330506223534456</v>
+        <v>1.302557973081662</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07019783652755507</v>
+        <v>0.02218573747741459</v>
       </c>
       <c r="D25">
-        <v>0.05697954646367265</v>
+        <v>0.01900296729994722</v>
       </c>
       <c r="E25">
-        <v>1.740455831652255</v>
+        <v>0.5052000581514307</v>
       </c>
       <c r="F25">
-        <v>0.4546625612993083</v>
+        <v>0.4179563898147549</v>
       </c>
       <c r="G25">
-        <v>0.340426159866638</v>
+        <v>0.2672972704664431</v>
       </c>
       <c r="H25">
-        <v>0.2181647039374326</v>
+        <v>0.413262036916862</v>
       </c>
       <c r="I25">
-        <v>0.3180963786338253</v>
+        <v>0.3042050346599723</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.867072349346472</v>
+        <v>1.215489722159589</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9028106161806875</v>
+        <v>0.9037424316440337</v>
       </c>
       <c r="O25">
-        <v>1.130869553650768</v>
+        <v>1.281470882896969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_193/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01867454579619476</v>
+        <v>0.05889322004031072</v>
       </c>
       <c r="D2">
-        <v>0.01614318093050571</v>
+        <v>0.04826956464900434</v>
       </c>
       <c r="E2">
-        <v>0.4248923627222041</v>
+        <v>1.434395088813943</v>
       </c>
       <c r="F2">
-        <v>0.4087128934447577</v>
+        <v>0.3937096752320812</v>
       </c>
       <c r="G2">
-        <v>0.2599563856376221</v>
+        <v>0.2915325148623253</v>
       </c>
       <c r="H2">
-        <v>0.4151933184147083</v>
+        <v>0.203710263214731</v>
       </c>
       <c r="I2">
-        <v>0.2983423642013037</v>
+        <v>0.2762650813745537</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.02386214922933</v>
+        <v>3.257761213193987</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8913632644226368</v>
+        <v>0.8582114076140499</v>
       </c>
       <c r="O2">
-        <v>1.269569322857564</v>
+        <v>0.9964220198688452</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01628825686935187</v>
+        <v>0.05124536596377283</v>
       </c>
       <c r="D3">
-        <v>0.01419227114529775</v>
+        <v>0.04234926182980558</v>
       </c>
       <c r="E3">
-        <v>0.3706619140378393</v>
+        <v>1.232547476480789</v>
       </c>
       <c r="F3">
-        <v>0.4031517034930729</v>
+        <v>0.3544884929948751</v>
       </c>
       <c r="G3">
-        <v>0.2555352550209236</v>
+        <v>0.2603476635807311</v>
       </c>
       <c r="H3">
-        <v>0.4170207067384695</v>
+        <v>0.1950724596082907</v>
       </c>
       <c r="I3">
-        <v>0.2948900495461544</v>
+        <v>0.2494656192629279</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8933833986952209</v>
+        <v>2.845055153711769</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.883633951762377</v>
+        <v>0.829607396864489</v>
       </c>
       <c r="O3">
-        <v>1.263743596995951</v>
+        <v>0.9118470434751202</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01481989529445116</v>
+        <v>0.04655214495829796</v>
       </c>
       <c r="D4">
-        <v>0.01298827817062431</v>
+        <v>0.03870410801131641</v>
       </c>
       <c r="E4">
-        <v>0.3374475790228502</v>
+        <v>1.110758813421228</v>
       </c>
       <c r="F4">
-        <v>0.4000820561260952</v>
+        <v>0.3313084028258118</v>
       </c>
       <c r="G4">
-        <v>0.2530913040299154</v>
+        <v>0.2420354151509869</v>
       </c>
       <c r="H4">
-        <v>0.418397931638367</v>
+        <v>0.1902839446181233</v>
       </c>
       <c r="I4">
-        <v>0.2930257512682708</v>
+        <v>0.2336808703166042</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8129774182268363</v>
+        <v>2.591547034680332</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.879216026500103</v>
+        <v>0.8127874647950648</v>
       </c>
       <c r="O4">
-        <v>1.261264851146535</v>
+        <v>0.862757596039188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01422076225017577</v>
+        <v>0.04463974298263196</v>
       </c>
       <c r="D5">
-        <v>0.01249613865913091</v>
+        <v>0.03721597630185869</v>
       </c>
       <c r="E5">
-        <v>0.3239318125341839</v>
+        <v>1.061587532460919</v>
       </c>
       <c r="F5">
-        <v>0.3989176585241054</v>
+        <v>0.3220714498955317</v>
       </c>
       <c r="G5">
-        <v>0.2521630911586499</v>
+        <v>0.2347655184169639</v>
       </c>
       <c r="H5">
-        <v>0.4190232619484391</v>
+        <v>0.1884543351937893</v>
       </c>
       <c r="I5">
-        <v>0.2923300822973651</v>
+        <v>0.227403936288848</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7801401465794697</v>
+        <v>2.488185989302082</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8774985576277317</v>
+        <v>0.8061123407173909</v>
       </c>
       <c r="O5">
-        <v>1.260530037131318</v>
+        <v>0.8434138029239477</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01412123152073264</v>
+        <v>0.04432218269744936</v>
       </c>
       <c r="D6">
-        <v>0.01241432963453093</v>
+        <v>0.03696870526282225</v>
       </c>
       <c r="E6">
-        <v>0.3216886509361387</v>
+        <v>1.053448124219628</v>
       </c>
       <c r="F6">
-        <v>0.3987295293492394</v>
+        <v>0.3205497937680022</v>
       </c>
       <c r="G6">
-        <v>0.2520130421681941</v>
+        <v>0.2335694892078592</v>
       </c>
       <c r="H6">
-        <v>0.4191309669431647</v>
+        <v>0.1881576641449172</v>
       </c>
       <c r="I6">
-        <v>0.2922184299393855</v>
+        <v>0.2263706790346696</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7746833059486846</v>
+        <v>2.471018901743946</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8772183908853037</v>
+        <v>0.8050145448329289</v>
       </c>
       <c r="O6">
-        <v>1.260424623385106</v>
+        <v>0.8402401688639856</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01481181822566668</v>
+        <v>0.0465263538119558</v>
       </c>
       <c r="D7">
-        <v>0.01298164703935356</v>
+        <v>0.03868404970218364</v>
       </c>
       <c r="E7">
-        <v>0.33726522447202</v>
+        <v>1.110093918166683</v>
       </c>
       <c r="F7">
-        <v>0.4000660026899823</v>
+        <v>0.3311830059416323</v>
       </c>
       <c r="G7">
-        <v>0.2530785120921379</v>
+        <v>0.2419366138673524</v>
       </c>
       <c r="H7">
-        <v>0.4184061056211519</v>
+        <v>0.1902587868700039</v>
       </c>
       <c r="I7">
-        <v>0.293016110151413</v>
+        <v>0.2335956045760348</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8125348486962309</v>
+        <v>2.590153327322469</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.879192528013661</v>
+        <v>0.8126967262520708</v>
       </c>
       <c r="O7">
-        <v>1.261253827693778</v>
+        <v>0.862494112871417</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01785243077317489</v>
+        <v>0.0562553725231254</v>
       </c>
       <c r="D8">
-        <v>0.01547180094174649</v>
+        <v>0.04623022351798056</v>
       </c>
       <c r="E8">
-        <v>0.4061754055134656</v>
+        <v>1.364301521078588</v>
       </c>
       <c r="F8">
-        <v>0.4067236598048964</v>
+        <v>0.3799880723648741</v>
       </c>
       <c r="G8">
-        <v>0.2583756028297159</v>
+        <v>0.2805956920564228</v>
       </c>
       <c r="H8">
-        <v>0.4157703905665073</v>
+        <v>0.2006202032795983</v>
       </c>
       <c r="I8">
-        <v>0.2970988774757757</v>
+        <v>0.2668774216245353</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9789348063767136</v>
+        <v>3.115464243785937</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8886303847752259</v>
+        <v>0.8481897191537513</v>
       </c>
       <c r="O8">
-        <v>1.267332133498826</v>
+        <v>0.9666378981746107</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02378871772459945</v>
+        <v>0.07538074742548417</v>
       </c>
       <c r="D9">
-        <v>0.02030493194715177</v>
+        <v>0.06095760592041444</v>
       </c>
       <c r="E9">
-        <v>0.5420490652899019</v>
+        <v>1.883881839876281</v>
       </c>
       <c r="F9">
-        <v>0.4225280545349648</v>
+        <v>0.4837043547511044</v>
       </c>
       <c r="G9">
-        <v>0.2709267809955804</v>
+        <v>0.363884202262696</v>
       </c>
       <c r="H9">
-        <v>0.4126303027463791</v>
+        <v>0.2254023460344001</v>
       </c>
       <c r="I9">
-        <v>0.3071411571075018</v>
+        <v>0.3380920941981103</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.302854067094017</v>
+        <v>4.146198187719961</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9097234941101817</v>
+        <v>0.9240647359141292</v>
       </c>
       <c r="O9">
-        <v>1.288008208905325</v>
+        <v>1.1959873510352</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02813286610366106</v>
+        <v>0.08950079290266899</v>
       </c>
       <c r="D10">
-        <v>0.02382371202507017</v>
+        <v>0.07174977284965678</v>
       </c>
       <c r="E10">
-        <v>0.6424461764504201</v>
+        <v>2.284769432497029</v>
       </c>
       <c r="F10">
-        <v>0.4358334763099379</v>
+        <v>0.5660684615601426</v>
       </c>
       <c r="G10">
-        <v>0.2814908754358925</v>
+        <v>0.4309118275297692</v>
       </c>
       <c r="H10">
-        <v>0.4115654997890061</v>
+        <v>0.2468950871860898</v>
       </c>
       <c r="I10">
-        <v>0.3157744682862074</v>
+        <v>0.3949874925945878</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.539298622625722</v>
+        <v>4.906106076276785</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9267779612803935</v>
+        <v>0.9842051852166094</v>
       </c>
       <c r="O10">
-        <v>1.308599588287166</v>
+        <v>1.383696198640052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03010516242193262</v>
+        <v>0.09594889894997038</v>
       </c>
       <c r="D11">
-        <v>0.02541720200218123</v>
+        <v>0.07665705085697994</v>
       </c>
       <c r="E11">
-        <v>0.688269653457624</v>
+        <v>2.472915189174856</v>
       </c>
       <c r="F11">
-        <v>0.4422583125526955</v>
+        <v>0.60518780557274</v>
       </c>
       <c r="G11">
-        <v>0.2865935063286713</v>
+        <v>0.4629830304579912</v>
       </c>
       <c r="H11">
-        <v>0.4113520737260643</v>
+        <v>0.2575236017919025</v>
       </c>
       <c r="I11">
-        <v>0.3199776526202669</v>
+        <v>0.4220943835585231</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.646513399764501</v>
+        <v>5.252945437612311</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9348709719671717</v>
+        <v>1.012657181339023</v>
       </c>
       <c r="O11">
-        <v>1.319153535902927</v>
+        <v>1.474208862930254</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03085143343459151</v>
+        <v>0.09839503375216907</v>
       </c>
       <c r="D12">
-        <v>0.02601954281016106</v>
+        <v>0.07851531957881264</v>
       </c>
       <c r="E12">
-        <v>0.7056456657216046</v>
+        <v>2.545146370071066</v>
       </c>
       <c r="F12">
-        <v>0.4447450282200123</v>
+        <v>0.620267181427721</v>
       </c>
       <c r="G12">
-        <v>0.2885688342057193</v>
+        <v>0.4753833227134976</v>
       </c>
       <c r="H12">
-        <v>0.4113103122304977</v>
+        <v>0.2616833820869573</v>
       </c>
       <c r="I12">
-        <v>0.3216091793221096</v>
+        <v>0.4325562596379484</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.687061401549784</v>
+        <v>5.384501642322959</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9379833884116096</v>
+        <v>1.02360090962911</v>
       </c>
       <c r="O12">
-        <v>1.323321736266479</v>
+        <v>1.509307325764809</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03069073766286579</v>
+        <v>0.09786800669138529</v>
       </c>
       <c r="D13">
-        <v>0.02588986659105075</v>
+        <v>0.07811510364363272</v>
       </c>
       <c r="E13">
-        <v>0.7019023504318227</v>
+        <v>2.529543656746725</v>
       </c>
       <c r="F13">
-        <v>0.4442070739960968</v>
+        <v>0.6170072726727369</v>
       </c>
       <c r="G13">
-        <v>0.2881414904914692</v>
+        <v>0.4727008481883104</v>
       </c>
       <c r="H13">
-        <v>0.4113175676704373</v>
+        <v>0.2607812826715445</v>
       </c>
       <c r="I13">
-        <v>0.3212560242668872</v>
+        <v>0.4302939881425445</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.678331008840701</v>
+        <v>5.356158217360985</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9373109553000205</v>
+        <v>1.021236234002444</v>
       </c>
       <c r="O13">
-        <v>1.322416389887223</v>
+        <v>1.501710163400958</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03016657071927398</v>
+        <v>0.0961500513734137</v>
       </c>
       <c r="D14">
-        <v>0.02546677880750536</v>
+        <v>0.07680993017047655</v>
       </c>
       <c r="E14">
-        <v>0.6896987042562586</v>
+        <v>2.478837013815848</v>
       </c>
       <c r="F14">
-        <v>0.4424618170515799</v>
+        <v>0.606422898467514</v>
       </c>
       <c r="G14">
-        <v>0.2867551524007581</v>
+        <v>0.463997914723123</v>
       </c>
       <c r="H14">
-        <v>0.4113478546506997</v>
+        <v>0.2578630478823101</v>
       </c>
       <c r="I14">
-        <v>0.3201110790333246</v>
+        <v>0.4229510117902393</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.64985036166604</v>
+        <v>5.263764019101814</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9351260771394152</v>
+        <v>1.013554056083663</v>
       </c>
       <c r="O14">
-        <v>1.3194930104994</v>
+        <v>1.47707941029779</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02984542477278751</v>
+        <v>0.09509834912637416</v>
       </c>
       <c r="D15">
-        <v>0.02520748355932767</v>
+        <v>0.07601048155166268</v>
       </c>
       <c r="E15">
-        <v>0.6822267515494218</v>
+        <v>2.447910819482061</v>
       </c>
       <c r="F15">
-        <v>0.441399806801364</v>
+        <v>0.5999751508111757</v>
       </c>
       <c r="G15">
-        <v>0.2859116004987783</v>
+        <v>0.4587012946021076</v>
       </c>
       <c r="H15">
-        <v>0.4113714956712045</v>
+        <v>0.2560935173695924</v>
       </c>
       <c r="I15">
-        <v>0.3194149656254126</v>
+        <v>0.4184795468925486</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.632398315196212</v>
+        <v>5.207199560104755</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9337939859087783</v>
+        <v>1.008870965128978</v>
       </c>
       <c r="O15">
-        <v>1.317724739289673</v>
+        <v>1.462102284291035</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0280038906861364</v>
+        <v>0.08907996120763073</v>
       </c>
       <c r="D16">
-        <v>0.02371942490525214</v>
+        <v>0.07142905243463105</v>
       </c>
       <c r="E16">
-        <v>0.6394547190730577</v>
+        <v>2.272602645132025</v>
       </c>
       <c r="F16">
-        <v>0.4354211084283861</v>
+        <v>0.5635475108934003</v>
       </c>
       <c r="G16">
-        <v>0.2811634138078887</v>
+        <v>0.4288500637153447</v>
       </c>
       <c r="H16">
-        <v>0.4115849081546941</v>
+        <v>0.2462186690323165</v>
       </c>
       <c r="I16">
-        <v>0.3155053486337565</v>
+        <v>0.3932423898513235</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.532284745637014</v>
+        <v>4.883466656280575</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9262557691776436</v>
+        <v>0.9823688190776778</v>
       </c>
       <c r="O16">
-        <v>1.307933829179717</v>
+        <v>1.377891295919</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02687314939397822</v>
+        <v>0.08539478939550804</v>
       </c>
       <c r="D17">
-        <v>0.02280467054220026</v>
+        <v>0.06861814970981328</v>
       </c>
       <c r="E17">
-        <v>0.613255718895374</v>
+        <v>2.1666403384163</v>
       </c>
       <c r="F17">
-        <v>0.4318488660811823</v>
+        <v>0.5416426483489332</v>
       </c>
       <c r="G17">
-        <v>0.2783268785977953</v>
+        <v>0.4109614000959709</v>
       </c>
       <c r="H17">
-        <v>0.4117852960428507</v>
+        <v>0.2403874155290424</v>
       </c>
       <c r="I17">
-        <v>0.3131777227167092</v>
+        <v>0.3780882627387001</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.470778307306318</v>
+        <v>4.68519623230037</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9217168057991501</v>
+        <v>0.9663992042249419</v>
       </c>
       <c r="O17">
-        <v>1.30223209849575</v>
+        <v>1.327601891101892</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02622241405424575</v>
+        <v>0.08327746106837708</v>
       </c>
       <c r="D18">
-        <v>0.02227785081413458</v>
+        <v>0.06700117275563144</v>
       </c>
       <c r="E18">
-        <v>0.5982009791838294</v>
+        <v>2.106227424474355</v>
       </c>
       <c r="F18">
-        <v>0.4298292183375523</v>
+        <v>0.5291971663071209</v>
       </c>
       <c r="G18">
-        <v>0.2767233089191876</v>
+        <v>0.4008191842674762</v>
       </c>
       <c r="H18">
-        <v>0.4119260520110828</v>
+        <v>0.2371127506327895</v>
       </c>
       <c r="I18">
-        <v>0.3118648856791921</v>
+        <v>0.3694859430365725</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.435369090553309</v>
+        <v>4.57126161656214</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9191376539012737</v>
+        <v>0.9573160670960448</v>
       </c>
       <c r="O18">
-        <v>1.299064264528681</v>
+        <v>1.299153327536516</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0260020250583608</v>
+        <v>0.08256093890963712</v>
       </c>
       <c r="D19">
-        <v>0.0220993636432425</v>
+        <v>0.06645364577784107</v>
       </c>
       <c r="E19">
-        <v>0.5931060942490234</v>
+        <v>2.085859965846339</v>
       </c>
       <c r="F19">
-        <v>0.4291514057396242</v>
+        <v>0.5250089029237941</v>
       </c>
       <c r="G19">
-        <v>0.2761851536228903</v>
+        <v>0.3974096048352607</v>
       </c>
       <c r="H19">
-        <v>0.4119780860159636</v>
+        <v>0.2360172634941904</v>
       </c>
       <c r="I19">
-        <v>0.3114248326057805</v>
+        <v>0.3665923052240814</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.423374653709118</v>
+        <v>4.532701964048726</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9182698261406728</v>
+        <v>0.9542578606074841</v>
       </c>
       <c r="O19">
-        <v>1.298010836488828</v>
+        <v>1.289600471554337</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02699355655758495</v>
+        <v>0.08578684007765958</v>
       </c>
       <c r="D20">
-        <v>0.02290211809141596</v>
+        <v>0.06891739582206213</v>
       </c>
       <c r="E20">
-        <v>0.616043161580393</v>
+        <v>2.177863910427774</v>
       </c>
       <c r="F20">
-        <v>0.432225511944452</v>
+        <v>0.5439583630286364</v>
       </c>
       <c r="G20">
-        <v>0.2786259392582195</v>
+        <v>0.4128502806566701</v>
       </c>
       <c r="H20">
-        <v>0.4117613247583165</v>
+        <v>0.2409998658614398</v>
       </c>
       <c r="I20">
-        <v>0.3134228150627152</v>
+        <v>0.3796895079326887</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.477329136389301</v>
+        <v>4.706291216460386</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9221967247386544</v>
+        <v>0.9680885375466488</v>
       </c>
       <c r="O20">
-        <v>1.302827494887993</v>
+        <v>1.332905358222831</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03032054769494152</v>
+        <v>0.09665453097299803</v>
       </c>
       <c r="D21">
-        <v>0.02559107956121665</v>
+        <v>0.07719328906092215</v>
       </c>
       <c r="E21">
-        <v>0.6932825549099988</v>
+        <v>2.493702746758728</v>
       </c>
       <c r="F21">
-        <v>0.4429729799809792</v>
+        <v>0.6095243362227052</v>
       </c>
       <c r="G21">
-        <v>0.28716118159997</v>
+        <v>0.4665470001227732</v>
       </c>
       <c r="H21">
-        <v>0.411337897840454</v>
+        <v>0.2587164346441853</v>
       </c>
       <c r="I21">
-        <v>0.3204462934508356</v>
+        <v>0.4251022967596754</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.65821724508595</v>
+        <v>5.290896158121541</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9357665353852269</v>
+        <v>1.015805793002244</v>
       </c>
       <c r="O21">
-        <v>1.320347011516958</v>
+        <v>1.484290986056976</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03249144460961872</v>
+        <v>0.1037831263545854</v>
       </c>
       <c r="D22">
-        <v>0.02734216167407055</v>
+        <v>0.08260215722079778</v>
       </c>
       <c r="E22">
-        <v>0.7439016723500202</v>
+        <v>2.705945744477077</v>
       </c>
       <c r="F22">
-        <v>0.4503106012597442</v>
+        <v>0.6539393525857093</v>
       </c>
       <c r="G22">
-        <v>0.2929906849181236</v>
+        <v>0.5031460229425164</v>
       </c>
       <c r="H22">
-        <v>0.411288870027775</v>
+        <v>0.2710887624334219</v>
       </c>
       <c r="I22">
-        <v>0.3252690424205724</v>
+        <v>0.4559420681056849</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.77613446857805</v>
+        <v>5.674253440940788</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9449134534473842</v>
+        <v>1.047986602373896</v>
       </c>
       <c r="O22">
-        <v>1.332797990394198</v>
+        <v>1.588075078133244</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03133312710532721</v>
+        <v>0.09997580552933982</v>
       </c>
       <c r="D23">
-        <v>0.02640816701085669</v>
+        <v>0.07971522893399197</v>
       </c>
       <c r="E23">
-        <v>0.7168720222468039</v>
+        <v>2.592078843335628</v>
       </c>
       <c r="F23">
-        <v>0.4463656017903617</v>
+        <v>0.6300811199263023</v>
       </c>
       <c r="G23">
-        <v>0.2898562602169932</v>
+        <v>0.4834646253504786</v>
       </c>
       <c r="H23">
-        <v>0.411294170501165</v>
+        <v>0.2644083509591013</v>
       </c>
       <c r="I23">
-        <v>0.3226737089515979</v>
+        <v>0.4393687449139776</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.713228362169446</v>
+        <v>5.469513057290385</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9400062342076438</v>
+        <v>1.030715755817823</v>
       </c>
       <c r="O23">
-        <v>1.326060754868479</v>
+        <v>1.532209506222756</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02693912252409802</v>
+        <v>0.08560958989438916</v>
       </c>
       <c r="D24">
-        <v>0.02285806490255027</v>
+        <v>0.06878210964061537</v>
       </c>
       <c r="E24">
-        <v>0.6147829358119452</v>
+        <v>2.172788168069999</v>
       </c>
       <c r="F24">
-        <v>0.4320551242044175</v>
+        <v>0.5429109698034935</v>
       </c>
       <c r="G24">
-        <v>0.278490649258174</v>
+        <v>0.41199587690312</v>
       </c>
       <c r="H24">
-        <v>0.4117720825920514</v>
+        <v>0.2407227356713406</v>
       </c>
       <c r="I24">
-        <v>0.3133119298757805</v>
+        <v>0.3789652439471496</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.474367656982395</v>
+        <v>4.6967540105789</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9219796587882314</v>
+        <v>0.9673244855991499</v>
       </c>
       <c r="O24">
-        <v>1.302557973081662</v>
+        <v>1.330506223534428</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02218573747741459</v>
+        <v>0.07019783652755507</v>
       </c>
       <c r="D25">
-        <v>0.01900296729994722</v>
+        <v>0.05697954646367265</v>
       </c>
       <c r="E25">
-        <v>0.5052000581514307</v>
+        <v>1.74045583165227</v>
       </c>
       <c r="F25">
-        <v>0.4179563898147549</v>
+        <v>0.4546625612993225</v>
       </c>
       <c r="G25">
-        <v>0.2672972704664431</v>
+        <v>0.3404261598666949</v>
       </c>
       <c r="H25">
-        <v>0.413262036916862</v>
+        <v>0.2181647039373189</v>
       </c>
       <c r="I25">
-        <v>0.3042050346599723</v>
+        <v>0.3180963786338253</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.215489722159589</v>
+        <v>3.867072349346415</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9037424316440337</v>
+        <v>0.9028106161807443</v>
       </c>
       <c r="O25">
-        <v>1.281470882896969</v>
+        <v>1.130869553650712</v>
       </c>
     </row>
   </sheetData>
